--- a/fhir/IG/StructureDefinition-fhir-ru-ext-nsi-gender.xlsx
+++ b/fhir/IG/StructureDefinition-fhir-ru-ext-nsi-gender.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Кодирования пола по справочнику ФНСИ.</t>
+    <t>Кодирование пола по справочнику ФНСИ.</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-10T17:15:12+03:00</t>
+    <t>2022-03-10T17:36:05+03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/IG/StructureDefinition-fhir-ru-ext-nsi-gender.xlsx
+++ b/fhir/IG/StructureDefinition-fhir-ru-ext-nsi-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-10T17:36:05+03:00</t>
+    <t>2022-04-27T17:36:36+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
